--- a/Dokumente/P02_Grobplanung/zusätzlich/R&C Grafisch.xlsx
+++ b/Dokumente/P02_Grobplanung/zusätzlich/R&C Grafisch.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\Cloud Storages\Nextcloud\HTL 4 AHIT\ITPP\GitHub\ITPP-Project-4-AHIT\Dokumente\P02_Grobplanung\zusätzlich\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hackl\Documents\GitHub\ITPP-Project-4-AHIT\Dokumente\P02_Grobplanung\zusätzlich\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="23040" windowHeight="8802" xr2:uid="{73F98290-8890-4F28-A567-5AB7DE467CEB}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="8802"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -41,8 +41,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,8 +78,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1236,6 +1244,206 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201930</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Gerader Verbinder 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E262E154-5D6F-4FD2-9886-0E6345DBEB79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3044190" y="1642110"/>
+          <a:ext cx="2705100" cy="994410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Gerader Verbinder 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E48B5E30-9C97-4D66-8184-E40730681B97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5775960" y="3642360"/>
+          <a:ext cx="2701290" cy="986790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Gerader Verbinder 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF291E9C-573F-44B8-BDC6-EACCF27A7C06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5745480" y="659130"/>
+          <a:ext cx="2705100" cy="994410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>674370</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Gerader Verbinder 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7550BB91-4342-4F72-91C4-5B086367611C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3051810" y="2655570"/>
+          <a:ext cx="2701290" cy="986790"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1535,128 +1743,131 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE498D44-86D3-46CC-8E8C-B3B9B3F32EB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="16384" width="10.9453125" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>8</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>-25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>21</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>-33</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>-75</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>95</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>65</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>50</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>35</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>0</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>70</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>0</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>-50</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L7">
+      <c r="L7" s="1">
         <v>50</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L8">
+      <c r="L8" s="1">
         <v>100</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L9">
+      <c r="L9" s="1">
         <v>50</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>-100</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="L10">
+      <c r="L10" s="1">
         <v>100</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>-50</v>
       </c>
     </row>
